--- a/Assets/Data/Table/Convert/Skill_SkillStepGroup.xlsx
+++ b/Assets/Data/Table/Convert/Skill_SkillStepGroup.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25831"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="E:\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0099B999-81AD-4CC3-B656-D871945A653F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F316C1-AA42-449E-BD2A-45F53CB5A173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15990" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="NonAttackSkillStepGroup" sheetId="16" r:id="rId1"/>
@@ -944,11 +944,6 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Enum.Skill.
-LoopTimeType</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
     <t>Player_DiveRelease_Crouch</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
@@ -1094,11 +1089,6 @@
   </si>
   <si>
     <t>#스텝 시간</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Enum.Skill.
-StepType</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1412,6 +1402,14 @@
   <si>
     <t>SkillStepGroup_ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Em.Skill.
+StepType</t>
+  </si>
+  <si>
+    <t>Em.Skill.
+LoopTimeType</t>
   </si>
 </sst>
 </file>
@@ -2223,41 +2221,41 @@
   <dimension ref="A1:AC46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="A17" sqref="A17"/>
+      <selection activeCell="E1" sqref="E1"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="13.5" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="1" width="29" style="25" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="28.75" style="25" customWidth="1"/>
-    <col min="3" max="3" width="22.75" style="25" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="6.875" style="71" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="29.625" style="25" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="7.25" style="71" customWidth="1"/>
-    <col min="7" max="7" width="8.25" style="71" customWidth="1"/>
-    <col min="8" max="9" width="6.25" style="71" customWidth="1"/>
-    <col min="10" max="10" width="9.125" style="71" bestFit="1" customWidth="1"/>
-    <col min="11" max="12" width="15.125" style="71" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="28.69921875" style="25" customWidth="1"/>
+    <col min="3" max="3" width="22.69921875" style="25" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="6.8984375" style="71" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="29.59765625" style="25" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="7.19921875" style="71" customWidth="1"/>
+    <col min="7" max="7" width="8.19921875" style="71" customWidth="1"/>
+    <col min="8" max="9" width="6.19921875" style="71" customWidth="1"/>
+    <col min="10" max="10" width="9.09765625" style="71" bestFit="1" customWidth="1"/>
+    <col min="11" max="12" width="15.09765625" style="71" bestFit="1" customWidth="1"/>
     <col min="13" max="13" width="9.5" style="71" bestFit="1" customWidth="1"/>
     <col min="14" max="14" width="13" style="71" bestFit="1" customWidth="1"/>
     <col min="15" max="15" width="9" style="71"/>
     <col min="16" max="16" width="9" style="72"/>
-    <col min="17" max="17" width="27.875" style="25" bestFit="1" customWidth="1"/>
-    <col min="18" max="18" width="8.625" style="71" bestFit="1" customWidth="1"/>
-    <col min="19" max="19" width="13.375" style="71" customWidth="1"/>
-    <col min="20" max="20" width="12.375" style="71" customWidth="1"/>
-    <col min="21" max="21" width="6.875" style="73" bestFit="1" customWidth="1"/>
+    <col min="17" max="17" width="27.8984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="18" max="18" width="8.59765625" style="71" bestFit="1" customWidth="1"/>
+    <col min="19" max="19" width="13.3984375" style="71" customWidth="1"/>
+    <col min="20" max="20" width="12.3984375" style="71" customWidth="1"/>
+    <col min="21" max="21" width="6.8984375" style="73" bestFit="1" customWidth="1"/>
     <col min="22" max="22" width="15.5" style="73"/>
-    <col min="23" max="23" width="9.25" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.875" style="74" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.875" style="74" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.19921875" style="72" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="9.8984375" style="74" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="11.8984375" style="74" bestFit="1" customWidth="1"/>
     <col min="26" max="26" width="16.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.375" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="27" width="22.3984375" style="25" bestFit="1" customWidth="1"/>
     <col min="28" max="29" width="15.5" style="25"/>
     <col min="30" max="16384" width="15.5" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="108.75" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:29" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2265,52 +2263,52 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>73</v>
+      </c>
+      <c r="G1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="H1" s="4" t="s">
         <v>75</v>
       </c>
-      <c r="H1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="I1" s="4" t="s">
-        <v>77</v>
-      </c>
       <c r="J1" s="4" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="K1" s="16" t="s">
+        <v>71</v>
+      </c>
+      <c r="L1" s="16" t="s">
         <v>72</v>
       </c>
-      <c r="L1" s="16" t="s">
-        <v>73</v>
-      </c>
       <c r="M1" s="5" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="S1" s="5" t="s">
         <v>34</v>
@@ -2322,31 +2320,31 @@
         <v>21</v>
       </c>
       <c r="V1" s="14" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="W1" s="12" t="s">
         <v>19</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="Z1" s="12" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="AA1" s="10" t="s">
         <v>2</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="AC1" s="10" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="27" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:29" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2360,22 +2358,22 @@
         <v>33</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="H2" s="8" t="s">
         <v>33</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>4</v>
@@ -2384,19 +2382,19 @@
         <v>33</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>81</v>
+        <v>165</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>41</v>
+        <v>166</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="R2" s="9" t="s">
         <v>40</v>
@@ -2411,7 +2409,7 @@
         <v>1</v>
       </c>
       <c r="V2" s="15" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>5</v>
@@ -2429,27 +2427,27 @@
         <v>36</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="AC2" s="11" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="D3" s="26">
         <v>0</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>15</v>
@@ -2473,7 +2471,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>14</v>
@@ -2494,7 +2492,7 @@
         <v>16</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U3" s="19"/>
       <c r="V3" s="27" t="s">
@@ -2522,15 +2520,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
+        <v>59</v>
+      </c>
+      <c r="B4" s="19" t="s">
         <v>60</v>
       </c>
-      <c r="B4" s="19" t="s">
-        <v>61</v>
-      </c>
       <c r="C4" s="19" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D4" s="26">
         <v>0</v>
@@ -2560,7 +2558,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>14</v>
@@ -2581,7 +2579,7 @@
         <v>16</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="U4" s="19"/>
       <c r="V4" s="27" t="s">
@@ -2609,12 +2607,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="5" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
         <v>39</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C5" s="20" t="s">
         <v>27</v>
@@ -2647,7 +2645,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>13</v>
@@ -2696,15 +2694,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="6" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D6" s="32">
         <v>0</v>
@@ -2734,7 +2732,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>13</v>
@@ -2755,7 +2753,7 @@
         <v>16</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
       <c r="U6" s="20"/>
       <c r="V6" s="33" t="s">
@@ -2783,70 +2781,70 @@
         <v>15</v>
       </c>
     </row>
-    <row r="7" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="B7" s="21" t="s">
+        <v>88</v>
+      </c>
+      <c r="C7" s="21" t="s">
+        <v>65</v>
+      </c>
+      <c r="D7" s="38">
+        <v>0</v>
+      </c>
+      <c r="E7" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="G7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="H7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="I7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="J7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="K7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="L7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="M7" s="38" t="s">
+        <v>84</v>
+      </c>
+      <c r="N7" s="38" t="s">
+        <v>68</v>
+      </c>
+      <c r="O7" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="P7" s="21" t="s">
+        <v>16</v>
+      </c>
+      <c r="Q7" s="21" t="s">
         <v>66</v>
       </c>
-      <c r="B7" s="21" t="s">
-        <v>90</v>
-      </c>
-      <c r="C7" s="21" t="s">
+      <c r="R7" s="38" t="s">
         <v>66</v>
       </c>
-      <c r="D7" s="38">
-        <v>0</v>
-      </c>
-      <c r="E7" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="G7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="H7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="I7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="J7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="K7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="L7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="M7" s="38" t="s">
-        <v>86</v>
-      </c>
-      <c r="N7" s="38" t="s">
-        <v>69</v>
-      </c>
-      <c r="O7" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="P7" s="21" t="s">
-        <v>16</v>
-      </c>
-      <c r="Q7" s="21" t="s">
-        <v>67</v>
-      </c>
-      <c r="R7" s="38" t="s">
-        <v>67</v>
-      </c>
       <c r="S7" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="U7" s="39"/>
       <c r="V7" s="39" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
       <c r="W7" s="40" t="b">
         <v>0</v>
@@ -2861,7 +2859,7 @@
         <v>1</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="AB7" s="21" t="s">
         <v>16</v>
@@ -2870,12 +2868,12 @@
         <v>16</v>
       </c>
     </row>
-    <row r="8" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
         <v>24</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C8" s="22" t="s">
         <v>24</v>
@@ -2908,7 +2906,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>13</v>
@@ -2957,12 +2955,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="9" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
         <v>25</v>
       </c>
       <c r="B9" s="22" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C9" s="22" t="s">
         <v>25</v>
@@ -2995,10 +2993,10 @@
         <v>15</v>
       </c>
       <c r="M9" s="44" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N9" s="44" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O9" s="44" t="s">
         <v>16</v>
@@ -3044,12 +3042,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="10" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A10" s="22" t="s">
         <v>26</v>
       </c>
       <c r="B10" s="22" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C10" s="22" t="s">
         <v>25</v>
@@ -3082,7 +3080,7 @@
         <v>15</v>
       </c>
       <c r="M10" s="44" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>13</v>
@@ -3131,12 +3129,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="11" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -3169,10 +3167,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="O11" s="50" t="s">
         <v>15</v>
@@ -3218,12 +3216,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>11</v>
@@ -3256,7 +3254,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N12" s="50" t="s">
         <v>13</v>
@@ -3305,12 +3303,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="13" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
         <v>28</v>
       </c>
       <c r="B13" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C13" s="21" t="s">
         <v>29</v>
@@ -3343,7 +3341,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N13" s="38" t="s">
         <v>13</v>
@@ -3392,12 +3390,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A14" s="21" t="s">
         <v>30</v>
       </c>
       <c r="B14" s="21" t="s">
-        <v>97</v>
+        <v>95</v>
       </c>
       <c r="C14" s="21" t="s">
         <v>29</v>
@@ -3430,10 +3428,10 @@
         <v>15</v>
       </c>
       <c r="M14" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N14" s="38" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="O14" s="38" t="s">
         <v>15</v>
@@ -3479,12 +3477,12 @@
         <v>15</v>
       </c>
     </row>
-    <row r="15" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A15" s="21" t="s">
         <v>31</v>
       </c>
       <c r="B15" s="21" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C15" s="21" t="s">
         <v>29</v>
@@ -3517,7 +3515,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N15" s="38" t="s">
         <v>13</v>
@@ -3566,21 +3564,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="16" spans="1:29" s="63" customFormat="1" ht="40.5" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:29" s="63" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
         <v>37</v>
       </c>
       <c r="B16" s="24" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="C16" s="24" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D16" s="56">
         <v>0</v>
       </c>
       <c r="E16" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F16" s="56" t="s">
         <v>15</v>
@@ -3604,10 +3602,10 @@
         <v>15</v>
       </c>
       <c r="M16" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N16" s="56" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O16" s="56" t="s">
         <v>15</v>
@@ -3616,7 +3614,7 @@
         <v>15</v>
       </c>
       <c r="Q16" s="64" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="R16" s="56" t="s">
         <v>38</v>
@@ -3653,21 +3651,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="17" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D17" s="56">
         <v>2</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>15</v>
@@ -3691,7 +3689,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N17" s="56" t="s">
         <v>14</v>
@@ -3740,21 +3738,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24" t="s">
+        <v>152</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>154</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>156</v>
-      </c>
       <c r="C18" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D18" s="56">
         <v>0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>15</v>
@@ -3778,7 +3776,7 @@
         <v>15</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N18" s="56" t="s">
         <v>14</v>
@@ -3827,21 +3825,21 @@
         <v>15</v>
       </c>
     </row>
-    <row r="19" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
+        <v>153</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>155</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>157</v>
-      </c>
       <c r="C19" s="24" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="F19" s="56" t="b">
         <v>1</v>
@@ -3865,7 +3863,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N19" s="56" t="s">
         <v>14</v>
@@ -3914,15 +3912,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="20" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B20" s="19" t="s">
-        <v>100</v>
+        <v>98</v>
       </c>
       <c r="C20" s="19" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D20" s="26">
         <v>0</v>
@@ -3952,10 +3950,10 @@
         <v>15</v>
       </c>
       <c r="M20" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N20" s="26" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="O20" s="26" t="s">
         <v>15</v>
@@ -3964,16 +3962,16 @@
         <v>15</v>
       </c>
       <c r="Q20" s="19" t="s">
+        <v>54</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="S20" s="26" t="s">
         <v>55</v>
       </c>
-      <c r="R20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>56</v>
-      </c>
       <c r="T20" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="U20" s="28"/>
       <c r="V20" s="27" t="s">
@@ -4001,15 +3999,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="21" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A21" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B21" s="19" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="C21" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D21" s="26">
         <v>0</v>
@@ -4039,7 +4037,7 @@
         <v>15</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>13</v>
@@ -4051,16 +4049,16 @@
         <v>15</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="S21" s="26" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="U21" s="28"/>
       <c r="V21" s="27" t="s">
@@ -4088,15 +4086,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D22" s="26">
         <v>0</v>
@@ -4126,7 +4124,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>14</v>
@@ -4138,7 +4136,7 @@
         <v>0.5</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="R22" s="26" t="s">
         <v>16</v>
@@ -4176,15 +4174,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
@@ -4214,10 +4212,10 @@
         <v>15</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O23" s="26">
         <v>0.2</v>
@@ -4226,7 +4224,7 @@
         <v>0.2</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R23" s="26" t="s">
         <v>15</v>
@@ -4264,15 +4262,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="24" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D24" s="26">
         <v>2</v>
@@ -4302,7 +4300,7 @@
         <v>15</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>13</v>
@@ -4314,7 +4312,7 @@
         <v>0.2</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R24" s="26" t="s">
         <v>15</v>
@@ -4352,15 +4350,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="25" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="D25" s="26">
         <v>3</v>
@@ -4390,7 +4388,7 @@
         <v>15</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>13</v>
@@ -4440,15 +4438,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="26" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D26" s="32">
         <v>0</v>
@@ -4478,10 +4476,10 @@
         <v>15</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O26" s="32">
         <v>0.1</v>
@@ -4490,7 +4488,7 @@
         <v>0.1</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>15</v>
@@ -4528,15 +4526,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="27" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D27" s="32">
         <v>1</v>
@@ -4566,7 +4564,7 @@
         <v>15</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N27" s="32" t="s">
         <v>13</v>
@@ -4578,7 +4576,7 @@
         <v>0.2</v>
       </c>
       <c r="Q27" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>15</v>
@@ -4616,15 +4614,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="28" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="D28" s="32">
         <v>2</v>
@@ -4654,7 +4652,7 @@
         <v>15</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N28" s="32" t="s">
         <v>13</v>
@@ -4704,15 +4702,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="29" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D29" s="26">
         <v>0</v>
@@ -4742,10 +4740,10 @@
         <v>15</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O29" s="26">
         <v>0.1</v>
@@ -4754,7 +4752,7 @@
         <v>0.1</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="R29" s="67" t="s">
         <v>15</v>
@@ -4792,15 +4790,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="30" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
@@ -4830,7 +4828,7 @@
         <v>15</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>13</v>
@@ -4842,7 +4840,7 @@
         <v>0.2</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R30" s="67" t="s">
         <v>15</v>
@@ -4880,15 +4878,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="31" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="D31" s="26">
         <v>2</v>
@@ -4918,7 +4916,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>13</v>
@@ -4968,15 +4966,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="32" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D32" s="32">
         <v>0</v>
@@ -5006,10 +5004,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="O32" s="32">
         <v>0.2</v>
@@ -5018,7 +5016,7 @@
         <v>0.5</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="R32" s="69" t="s">
         <v>15</v>
@@ -5056,15 +5054,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="33" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D33" s="32">
         <v>1</v>
@@ -5094,10 +5092,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="O33" s="32">
         <v>0.5</v>
@@ -5106,7 +5104,7 @@
         <v>0.5</v>
       </c>
       <c r="Q33" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="R33" s="69" t="s">
         <v>15</v>
@@ -5144,15 +5142,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="D34" s="32">
         <v>2</v>
@@ -5182,16 +5180,16 @@
         <v>16</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="O34" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>16</v>
@@ -5232,15 +5230,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="35" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -5270,7 +5268,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>13</v>
@@ -5320,15 +5318,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="36" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="D36" s="32">
         <v>0</v>
@@ -5358,7 +5356,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>13</v>
@@ -5408,15 +5406,15 @@
         <v>15</v>
       </c>
     </row>
-    <row r="37" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="D37" s="26">
         <v>0</v>
@@ -5446,7 +5444,7 @@
         <v>15</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="N37" s="26" t="s">
         <v>13</v>
@@ -5496,41 +5494,41 @@
         <v>15</v>
       </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y38" s="75"/>
       <c r="Z38" s="25"/>
       <c r="AB38" s="71"/>
       <c r="AC38" s="71"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y39" s="75"/>
       <c r="Z39" s="25"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y40" s="75"/>
       <c r="Z40" s="25"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y41" s="75"/>
       <c r="Z41" s="25"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y42" s="75"/>
       <c r="Z42" s="25"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y43" s="75"/>
       <c r="Z43" s="25"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y44" s="75"/>
       <c r="Z44" s="25"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y45" s="75"/>
       <c r="Z45" s="25"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
       <c r="Y46" s="75"/>
       <c r="Z46" s="25"/>
     </row>

--- a/Assets/Data/Table/Convert/Skill_SkillStepGroup.xlsx
+++ b/Assets/Data/Table/Convert/Skill_SkillStepGroup.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="25928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26026"/>
   <workbookPr codeName="현재_통합_문서"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Storage\UnityProject\ProjectS\Assets\Data\Table\Convert\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C7F316C1-AA42-449E-BD2A-45F53CB5A173}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{ADDBBA89-7127-4210-9DDA-3E9AFC7D1026}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-46188" yWindow="-108" windowWidth="46296" windowHeight="25680" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -38,6 +38,7 @@
   <authors>
     <author>이대용</author>
     <author>tc={BBA35E0D-E0DA-4CE7-9305-CA74D5120144}</author>
+    <author>tc={AB20144B-BD0A-4CD6-9014-375A3CC4C5D0}</author>
   </authors>
   <commentList>
     <comment ref="G1" authorId="0" shapeId="0" xr:uid="{4420930A-10AC-4969-9D8B-F19FB5C67709}">
@@ -772,7 +773,7 @@
         </r>
       </text>
     </comment>
-    <comment ref="V1" authorId="1" shapeId="0" xr:uid="{BBA35E0D-E0DA-4CE7-9305-CA74D5120144}">
+    <comment ref="U1" authorId="1" shapeId="0" xr:uid="{BBA35E0D-E0DA-4CE7-9305-CA74D5120144}">
       <text>
         <t>[스레드 댓글]
 사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
@@ -780,12 +781,20 @@
     RuleMove는 플레이어 조작의 개입에 의해 변형되는 이동을 제외한, 고정적인 이동만을 다룹니다.</t>
       </text>
     </comment>
+    <comment ref="U2" authorId="2" shapeId="0" xr:uid="{AB20144B-BD0A-4CD6-9014-375A3CC4C5D0}">
+      <text>
+        <t>[스레드 댓글]
+사용 중인 버전의 Excel에서 이 스레드 댓글을 읽을 수 있지만 파일을 이후 버전의 Excel에서 열면 편집 내용이 모두 제거됩니다. 자세한 정보: https://go.microsoft.com/fwlink/?linkid=870924.
+댓글:
+    RuleMove &gt; MoveStepGroup_ID</t>
+      </text>
+    </comment>
   </commentList>
 </comments>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="769" uniqueCount="167">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="767" uniqueCount="165">
   <si>
     <t>ID</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -865,10 +874,6 @@
   </si>
   <si>
     <t>#</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>#시간</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -998,11 +1003,6 @@
   </si>
   <si>
     <t>Idle</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>Tb.Move
-Character</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -1944,6 +1944,7 @@
 <file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
 <personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <person displayName="이대용" id="{01D0E3FF-1275-4C17-A092-AE55EC774945}" userId="이대용" providerId="None"/>
+  <person displayName="이대용" id="{C4CC76F8-6592-482E-B7C1-F9415C02A73C}" userId="S::ld1127@o365sen.net::ba751c71-b628-4c1e-bd4e-0868394c206b" providerId="AD"/>
 </personList>
 </file>
 
@@ -2210,18 +2211,21 @@
 
 <file path=xl/threadedComments/threadedComment1.xml><?xml version="1.0" encoding="utf-8"?>
 <ThreadedComments xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <threadedComment ref="V1" dT="2022-12-30T16:29:39.57" personId="{01D0E3FF-1275-4C17-A092-AE55EC774945}" id="{BBA35E0D-E0DA-4CE7-9305-CA74D5120144}">
+  <threadedComment ref="U1" dT="2022-12-30T16:29:39.57" personId="{01D0E3FF-1275-4C17-A092-AE55EC774945}" id="{BBA35E0D-E0DA-4CE7-9305-CA74D5120144}">
     <text>RuleMove는 플레이어 조작의 개입에 의해 변형되는 이동을 제외한, 고정적인 이동만을 다룹니다.</text>
+  </threadedComment>
+  <threadedComment ref="U2" dT="2023-02-12T06:51:42.77" personId="{C4CC76F8-6592-482E-B7C1-F9415C02A73C}" id="{AB20144B-BD0A-4CD6-9014-375A3CC4C5D0}">
+    <text>RuleMove &gt; MoveStepGroup_ID</text>
   </threadedComment>
 </ThreadedComments>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0E7C80CD-4CAD-49BA-AF72-020DE87FC310}">
-  <dimension ref="A1:AC46"/>
+  <dimension ref="A1:AB46"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="E1" sqref="E1"/>
+      <selection activeCell="W9" sqref="W9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="15.5" defaultRowHeight="15.6" x14ac:dyDescent="0.4"/>
@@ -2244,18 +2248,17 @@
     <col min="18" max="18" width="8.59765625" style="71" bestFit="1" customWidth="1"/>
     <col min="19" max="19" width="13.3984375" style="71" customWidth="1"/>
     <col min="20" max="20" width="12.3984375" style="71" customWidth="1"/>
-    <col min="21" max="21" width="6.8984375" style="73" bestFit="1" customWidth="1"/>
-    <col min="22" max="22" width="15.5" style="73"/>
-    <col min="23" max="23" width="9.19921875" style="72" bestFit="1" customWidth="1"/>
-    <col min="24" max="24" width="9.8984375" style="74" bestFit="1" customWidth="1"/>
-    <col min="25" max="25" width="11.8984375" style="74" bestFit="1" customWidth="1"/>
-    <col min="26" max="26" width="16.5" style="74" bestFit="1" customWidth="1"/>
-    <col min="27" max="27" width="22.3984375" style="25" bestFit="1" customWidth="1"/>
-    <col min="28" max="29" width="15.5" style="25"/>
-    <col min="30" max="16384" width="15.5" style="76"/>
+    <col min="21" max="21" width="15.5" style="73"/>
+    <col min="22" max="22" width="9.19921875" style="72" bestFit="1" customWidth="1"/>
+    <col min="23" max="23" width="9.8984375" style="74" bestFit="1" customWidth="1"/>
+    <col min="24" max="24" width="11.8984375" style="74" bestFit="1" customWidth="1"/>
+    <col min="25" max="25" width="16.5" style="74" bestFit="1" customWidth="1"/>
+    <col min="26" max="26" width="22.3984375" style="25" bestFit="1" customWidth="1"/>
+    <col min="27" max="28" width="15.5" style="25"/>
+    <col min="29" max="16384" width="15.5" style="76"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:29" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:28" s="6" customFormat="1" ht="105" x14ac:dyDescent="0.4">
       <c r="A1" s="3" t="s">
         <v>0</v>
       </c>
@@ -2263,88 +2266,85 @@
         <v>3</v>
       </c>
       <c r="C1" s="3" t="s">
-        <v>164</v>
+        <v>162</v>
       </c>
       <c r="D1" s="3" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
       <c r="E1" s="14" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="F1" s="4" t="s">
+        <v>71</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>72</v>
+      </c>
+      <c r="H1" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="G1" s="4" t="s">
+      <c r="I1" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="H1" s="4" t="s">
-        <v>75</v>
-      </c>
-      <c r="I1" s="4" t="s">
+      <c r="J1" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="K1" s="16" t="s">
+        <v>69</v>
+      </c>
+      <c r="L1" s="16" t="s">
+        <v>70</v>
+      </c>
+      <c r="M1" s="5" t="s">
         <v>76</v>
-      </c>
-      <c r="J1" s="4" t="s">
-        <v>100</v>
-      </c>
-      <c r="K1" s="16" t="s">
-        <v>71</v>
-      </c>
-      <c r="L1" s="16" t="s">
-        <v>72</v>
-      </c>
-      <c r="M1" s="5" t="s">
-        <v>78</v>
       </c>
       <c r="N1" s="5" t="s">
         <v>17</v>
       </c>
       <c r="O1" s="5" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
       <c r="P1" s="5" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="Q1" s="5" t="s">
         <v>6</v>
       </c>
       <c r="R1" s="5" t="s">
-        <v>101</v>
+        <v>99</v>
       </c>
       <c r="S1" s="5" t="s">
+        <v>33</v>
+      </c>
+      <c r="T1" s="5" t="s">
         <v>34</v>
       </c>
-      <c r="T1" s="5" t="s">
-        <v>35</v>
-      </c>
-      <c r="U1" s="5" t="s">
-        <v>21</v>
-      </c>
-      <c r="V1" s="14" t="s">
-        <v>58</v>
+      <c r="U1" s="14" t="s">
+        <v>56</v>
+      </c>
+      <c r="V1" s="12" t="s">
+        <v>19</v>
       </c>
       <c r="W1" s="12" t="s">
-        <v>19</v>
+        <v>48</v>
       </c>
       <c r="X1" s="12" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="Y1" s="12" t="s">
-        <v>48</v>
-      </c>
-      <c r="Z1" s="12" t="s">
-        <v>47</v>
+        <v>46</v>
+      </c>
+      <c r="Z1" s="10" t="s">
+        <v>2</v>
       </c>
       <c r="AA1" s="10" t="s">
-        <v>2</v>
+        <v>83</v>
       </c>
       <c r="AB1" s="10" t="s">
-        <v>85</v>
-      </c>
-      <c r="AC1" s="10" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
     </row>
-    <row r="2" spans="1:29" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
+    <row r="2" spans="1:28" s="2" customFormat="1" ht="31.2" x14ac:dyDescent="0.4">
       <c r="A2" s="1" t="s">
         <v>4</v>
       </c>
@@ -2355,49 +2355,49 @@
         <v>4</v>
       </c>
       <c r="D2" s="7" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="E2" s="18" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
       <c r="F2" s="8" t="s">
         <v>5</v>
       </c>
       <c r="G2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="H2" s="8" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="I2" s="8" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="J2" s="8" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
       <c r="K2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="L2" s="17" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
       <c r="M2" s="9" t="s">
-        <v>165</v>
+        <v>163</v>
       </c>
       <c r="N2" s="9" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
       <c r="O2" s="9" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="P2" s="9" t="s">
         <v>1</v>
       </c>
       <c r="Q2" s="9" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
       <c r="R2" s="9" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="S2" s="9" t="s">
         <v>4</v>
@@ -2405,11 +2405,11 @@
       <c r="T2" s="9" t="s">
         <v>4</v>
       </c>
-      <c r="U2" s="9" t="s">
-        <v>1</v>
-      </c>
-      <c r="V2" s="15" t="s">
-        <v>57</v>
+      <c r="U2" s="15" t="s">
+        <v>4</v>
+      </c>
+      <c r="V2" s="13" t="s">
+        <v>5</v>
       </c>
       <c r="W2" s="13" t="s">
         <v>5</v>
@@ -2418,36 +2418,33 @@
         <v>5</v>
       </c>
       <c r="Y2" s="13" t="s">
-        <v>5</v>
-      </c>
-      <c r="Z2" s="13" t="s">
-        <v>33</v>
+        <v>32</v>
+      </c>
+      <c r="Z2" s="11" t="s">
+        <v>35</v>
       </c>
       <c r="AA2" s="11" t="s">
-        <v>36</v>
+        <v>85</v>
       </c>
       <c r="AB2" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="AC2" s="11" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
     </row>
-    <row r="3" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="3" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A3" s="19" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B3" s="19" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
       <c r="C3" s="19" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="D3" s="26">
         <v>0</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F3" s="26" t="s">
         <v>15</v>
@@ -2471,7 +2468,7 @@
         <v>15</v>
       </c>
       <c r="M3" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N3" s="26" t="s">
         <v>14</v>
@@ -2492,43 +2489,42 @@
         <v>16</v>
       </c>
       <c r="T3" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="U3" s="19"/>
-      <c r="V3" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="W3" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="X3" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y3" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z3" s="30">
+        <v>62</v>
+      </c>
+      <c r="U3" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V3" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W3" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X3" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y3" s="30">
         <v>2</v>
       </c>
+      <c r="Z3" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AA3" s="19" t="s">
         <v>15</v>
       </c>
       <c r="AB3" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC3" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="4" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="4" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A4" s="19" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="B4" s="19" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="C4" s="19" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D4" s="26">
         <v>0</v>
@@ -2558,7 +2554,7 @@
         <v>15</v>
       </c>
       <c r="M4" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N4" s="26" t="s">
         <v>14</v>
@@ -2579,43 +2575,42 @@
         <v>16</v>
       </c>
       <c r="T4" s="26" t="s">
-        <v>64</v>
-      </c>
-      <c r="U4" s="19"/>
-      <c r="V4" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="W4" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="X4" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y4" s="30" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z4" s="30">
+        <v>62</v>
+      </c>
+      <c r="U4" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V4" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W4" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X4" s="30" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y4" s="30">
         <v>2</v>
       </c>
+      <c r="Z4" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AA4" s="19" t="s">
         <v>15</v>
       </c>
       <c r="AB4" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC4" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="5" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="5" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A5" s="20" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="20" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="D5" s="32">
         <v>0</v>
@@ -2645,7 +2640,7 @@
         <v>15</v>
       </c>
       <c r="M5" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N5" s="32" t="s">
         <v>13</v>
@@ -2668,20 +2663,22 @@
       <c r="T5" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="U5" s="20"/>
-      <c r="V5" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="W5" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X5" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y5" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z5" s="36" t="s">
+      <c r="U5" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V5" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W5" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X5" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z5" s="20" t="s">
         <v>15</v>
       </c>
       <c r="AA5" s="20" t="s">
@@ -2690,19 +2687,16 @@
       <c r="AB5" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC5" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="6" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="6" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B6" s="20" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="C6" s="20" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="D6" s="32">
         <v>0</v>
@@ -2732,7 +2726,7 @@
         <v>15</v>
       </c>
       <c r="M6" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N6" s="32" t="s">
         <v>13</v>
@@ -2753,22 +2747,24 @@
         <v>16</v>
       </c>
       <c r="T6" s="32" t="s">
-        <v>70</v>
-      </c>
-      <c r="U6" s="20"/>
-      <c r="V6" s="33" t="s">
-        <v>15</v>
-      </c>
-      <c r="W6" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="X6" s="35" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y6" s="36" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z6" s="36" t="s">
+        <v>68</v>
+      </c>
+      <c r="U6" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V6" s="34" t="b">
+        <v>0</v>
+      </c>
+      <c r="W6" s="35" t="b">
+        <v>0</v>
+      </c>
+      <c r="X6" s="36" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y6" s="36" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z6" s="20" t="s">
         <v>15</v>
       </c>
       <c r="AA6" s="20" t="s">
@@ -2777,19 +2773,16 @@
       <c r="AB6" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC6" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="7" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="7" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A7" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B7" s="21" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
       <c r="C7" s="21" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="D7" s="38">
         <v>0</v>
@@ -2819,10 +2812,10 @@
         <v>16</v>
       </c>
       <c r="M7" s="38" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N7" s="38" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O7" s="38" t="s">
         <v>16</v>
@@ -2831,52 +2824,51 @@
         <v>16</v>
       </c>
       <c r="Q7" s="21" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="R7" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="S7" s="38" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="T7" s="38" t="s">
-        <v>66</v>
-      </c>
-      <c r="U7" s="39"/>
-      <c r="V7" s="39" t="s">
-        <v>69</v>
-      </c>
-      <c r="W7" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X7" s="41" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y7" s="42" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z7" s="42">
-        <v>1</v>
+        <v>64</v>
+      </c>
+      <c r="U7" s="39" t="s">
+        <v>67</v>
+      </c>
+      <c r="V7" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W7" s="41" t="b">
+        <v>1</v>
+      </c>
+      <c r="X7" s="42" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y7" s="42">
+        <v>1</v>
+      </c>
+      <c r="Z7" s="21" t="s">
+        <v>64</v>
       </c>
       <c r="AA7" s="21" t="s">
-        <v>66</v>
+        <v>16</v>
       </c>
       <c r="AB7" s="21" t="s">
         <v>16</v>
       </c>
-      <c r="AC7" s="21" t="s">
-        <v>16</v>
-      </c>
     </row>
-    <row r="8" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="8" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B8" s="22" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C8" s="22" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="D8" s="44">
         <v>0</v>
@@ -2906,7 +2898,7 @@
         <v>15</v>
       </c>
       <c r="M8" s="44" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N8" s="44" t="s">
         <v>13</v>
@@ -2918,7 +2910,7 @@
         <v>15</v>
       </c>
       <c r="Q8" s="22" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="R8" s="44" t="s">
         <v>15</v>
@@ -2929,20 +2921,22 @@
       <c r="T8" s="44" t="s">
         <v>16</v>
       </c>
-      <c r="U8" s="45"/>
-      <c r="V8" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="W8" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X8" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y8" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z8" s="48" t="s">
+      <c r="U8" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V8" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W8" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X8" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y8" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z8" s="22" t="s">
         <v>15</v>
       </c>
       <c r="AA8" s="22" t="s">
@@ -2951,136 +2945,132 @@
       <c r="AB8" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AC8" s="22" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="9" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="9" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="B9" s="22" t="s">
+        <v>88</v>
+      </c>
+      <c r="C9" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D9" s="44">
+        <v>0</v>
+      </c>
+      <c r="E9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M9" s="44" t="s">
+        <v>79</v>
+      </c>
+      <c r="N9" s="44" t="s">
+        <v>100</v>
+      </c>
+      <c r="O9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="P9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q9" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="R9" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="S9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="T9" s="44" t="s">
+        <v>16</v>
+      </c>
+      <c r="U9" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V9" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W9" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X9" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y9" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA9" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB9" s="22" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="10" spans="1:28" s="49" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A10" s="22" t="s">
         <v>25</v>
       </c>
-      <c r="B9" s="22" t="s">
-        <v>90</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D9" s="44">
-        <v>0</v>
-      </c>
-      <c r="E9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M9" s="44" t="s">
+      <c r="B10" s="22" t="s">
+        <v>89</v>
+      </c>
+      <c r="C10" s="22" t="s">
+        <v>24</v>
+      </c>
+      <c r="D10" s="44">
+        <v>1</v>
+      </c>
+      <c r="E10" s="22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="G10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="H10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="I10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="J10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="K10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="L10" s="44" t="s">
+        <v>15</v>
+      </c>
+      <c r="M10" s="44" t="s">
         <v>81</v>
-      </c>
-      <c r="N9" s="44" t="s">
-        <v>102</v>
-      </c>
-      <c r="O9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="P9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q9" s="22" t="s">
-        <v>23</v>
-      </c>
-      <c r="R9" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="S9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="T9" s="44" t="s">
-        <v>16</v>
-      </c>
-      <c r="U9" s="45"/>
-      <c r="V9" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="W9" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X9" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y9" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z9" s="48" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB9" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC9" s="22" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="10" spans="1:29" s="49" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A10" s="22" t="s">
-        <v>26</v>
-      </c>
-      <c r="B10" s="22" t="s">
-        <v>91</v>
-      </c>
-      <c r="C10" s="22" t="s">
-        <v>25</v>
-      </c>
-      <c r="D10" s="44">
-        <v>1</v>
-      </c>
-      <c r="E10" s="22" t="s">
-        <v>15</v>
-      </c>
-      <c r="F10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="G10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="H10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="I10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="J10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="K10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="L10" s="44" t="s">
-        <v>15</v>
-      </c>
-      <c r="M10" s="44" t="s">
-        <v>83</v>
       </c>
       <c r="N10" s="44" t="s">
         <v>13</v>
@@ -3103,20 +3093,22 @@
       <c r="T10" s="44" t="s">
         <v>7</v>
       </c>
-      <c r="U10" s="45"/>
-      <c r="V10" s="45" t="s">
-        <v>15</v>
-      </c>
-      <c r="W10" s="46" t="b">
-        <v>0</v>
-      </c>
-      <c r="X10" s="47" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y10" s="48" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z10" s="48" t="s">
+      <c r="U10" s="45" t="s">
+        <v>15</v>
+      </c>
+      <c r="V10" s="46" t="b">
+        <v>0</v>
+      </c>
+      <c r="W10" s="47" t="b">
+        <v>0</v>
+      </c>
+      <c r="X10" s="48" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y10" s="48" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z10" s="22" t="s">
         <v>15</v>
       </c>
       <c r="AA10" s="22" t="s">
@@ -3125,16 +3117,13 @@
       <c r="AB10" s="22" t="s">
         <v>15</v>
       </c>
-      <c r="AC10" s="22" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="11" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A11" s="23" t="s">
         <v>8</v>
       </c>
       <c r="B11" s="23" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="C11" s="23" t="s">
         <v>11</v>
@@ -3167,10 +3156,10 @@
         <v>15</v>
       </c>
       <c r="M11" s="50" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N11" s="50" t="s">
-        <v>102</v>
+        <v>100</v>
       </c>
       <c r="O11" s="50" t="s">
         <v>15</v>
@@ -3190,20 +3179,22 @@
       <c r="T11" s="50" t="s">
         <v>16</v>
       </c>
-      <c r="U11" s="51"/>
-      <c r="V11" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="W11" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X11" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y11" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z11" s="54" t="s">
+      <c r="U11" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V11" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W11" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X11" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y11" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z11" s="23" t="s">
         <v>15</v>
       </c>
       <c r="AA11" s="23" t="s">
@@ -3212,16 +3203,13 @@
       <c r="AB11" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AC11" s="23" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="12" spans="1:29" s="55" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="12" spans="1:28" s="55" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A12" s="23" t="s">
         <v>10</v>
       </c>
       <c r="B12" s="23" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C12" s="23" t="s">
         <v>11</v>
@@ -3254,7 +3242,7 @@
         <v>15</v>
       </c>
       <c r="M12" s="50" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N12" s="50" t="s">
         <v>13</v>
@@ -3277,20 +3265,22 @@
       <c r="T12" s="50" t="s">
         <v>18</v>
       </c>
-      <c r="U12" s="51"/>
-      <c r="V12" s="51" t="s">
-        <v>15</v>
-      </c>
-      <c r="W12" s="52" t="b">
-        <v>0</v>
-      </c>
-      <c r="X12" s="53" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y12" s="54" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z12" s="54" t="s">
+      <c r="U12" s="51" t="s">
+        <v>15</v>
+      </c>
+      <c r="V12" s="52" t="b">
+        <v>0</v>
+      </c>
+      <c r="W12" s="53" t="b">
+        <v>0</v>
+      </c>
+      <c r="X12" s="54" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y12" s="54" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z12" s="23" t="s">
         <v>15</v>
       </c>
       <c r="AA12" s="23" t="s">
@@ -3299,20 +3289,17 @@
       <c r="AB12" s="23" t="s">
         <v>15</v>
       </c>
-      <c r="AC12" s="23" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="13" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="13" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A13" s="21" t="s">
+        <v>27</v>
+      </c>
+      <c r="B13" s="21" t="s">
+        <v>92</v>
+      </c>
+      <c r="C13" s="21" t="s">
         <v>28</v>
       </c>
-      <c r="B13" s="21" t="s">
-        <v>94</v>
-      </c>
-      <c r="C13" s="21" t="s">
-        <v>29</v>
-      </c>
       <c r="D13" s="38">
         <v>0</v>
       </c>
@@ -3341,7 +3328,7 @@
         <v>15</v>
       </c>
       <c r="M13" s="38" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N13" s="38" t="s">
         <v>13</v>
@@ -3353,139 +3340,137 @@
         <v>15</v>
       </c>
       <c r="Q13" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="R13" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="S13" s="38" t="s">
+        <v>21</v>
+      </c>
+      <c r="T13" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="U13" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="V13" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W13" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X13" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA13" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB13" s="21" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A14" s="21" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="21" t="s">
+        <v>93</v>
+      </c>
+      <c r="C14" s="21" t="s">
+        <v>28</v>
+      </c>
+      <c r="D14" s="38">
+        <v>1</v>
+      </c>
+      <c r="E14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="G14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="H14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="I14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="J14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="K14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="L14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="M14" s="38" t="s">
+        <v>79</v>
+      </c>
+      <c r="N14" s="38" t="s">
+        <v>49</v>
+      </c>
+      <c r="O14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="P14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q14" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="R13" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="S13" s="38" t="s">
-        <v>22</v>
-      </c>
-      <c r="T13" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="U13" s="39"/>
-      <c r="V13" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="W13" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X13" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y13" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z13" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB13" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC13" s="21" t="s">
+      <c r="R14" s="38" t="s">
+        <v>15</v>
+      </c>
+      <c r="S14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="T14" s="38" t="s">
+        <v>16</v>
+      </c>
+      <c r="U14" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="V14" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W14" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X14" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y14" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA14" s="21" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB14" s="21" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="14" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A14" s="21" t="s">
+    <row r="15" spans="1:28" s="43" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A15" s="21" t="s">
         <v>30</v>
       </c>
-      <c r="B14" s="21" t="s">
-        <v>95</v>
-      </c>
-      <c r="C14" s="21" t="s">
-        <v>29</v>
-      </c>
-      <c r="D14" s="38">
-        <v>1</v>
-      </c>
-      <c r="E14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="F14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="G14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="H14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="I14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="J14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="K14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="L14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="M14" s="38" t="s">
-        <v>81</v>
-      </c>
-      <c r="N14" s="38" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="P14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q14" s="21" t="s">
-        <v>31</v>
-      </c>
-      <c r="R14" s="38" t="s">
-        <v>15</v>
-      </c>
-      <c r="S14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="T14" s="38" t="s">
-        <v>16</v>
-      </c>
-      <c r="U14" s="39"/>
-      <c r="V14" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="W14" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X14" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y14" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z14" s="42" t="s">
-        <v>15</v>
-      </c>
-      <c r="AA14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB14" s="21" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC14" s="21" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="15" spans="1:29" s="43" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A15" s="21" t="s">
-        <v>31</v>
-      </c>
       <c r="B15" s="21" t="s">
-        <v>96</v>
+        <v>94</v>
       </c>
       <c r="C15" s="21" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="D15" s="38">
         <v>2</v>
@@ -3515,7 +3500,7 @@
         <v>15</v>
       </c>
       <c r="M15" s="38" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N15" s="38" t="s">
         <v>13</v>
@@ -3538,20 +3523,22 @@
       <c r="T15" s="38" t="s">
         <v>18</v>
       </c>
-      <c r="U15" s="39"/>
-      <c r="V15" s="39" t="s">
-        <v>15</v>
-      </c>
-      <c r="W15" s="40" t="b">
-        <v>0</v>
-      </c>
-      <c r="X15" s="41" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y15" s="42" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z15" s="42" t="s">
+      <c r="U15" s="39" t="s">
+        <v>15</v>
+      </c>
+      <c r="V15" s="40" t="b">
+        <v>0</v>
+      </c>
+      <c r="W15" s="41" t="b">
+        <v>0</v>
+      </c>
+      <c r="X15" s="42" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y15" s="42" t="s">
+        <v>15</v>
+      </c>
+      <c r="Z15" s="21" t="s">
         <v>15</v>
       </c>
       <c r="AA15" s="21" t="s">
@@ -3560,112 +3547,108 @@
       <c r="AB15" s="21" t="s">
         <v>15</v>
       </c>
-      <c r="AC15" s="21" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="16" spans="1:29" s="63" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
+    <row r="16" spans="1:28" s="63" customFormat="1" ht="46.8" x14ac:dyDescent="0.4">
       <c r="A16" s="24" t="s">
+        <v>36</v>
+      </c>
+      <c r="B16" s="24" t="s">
+        <v>95</v>
+      </c>
+      <c r="C16" s="24" t="s">
+        <v>50</v>
+      </c>
+      <c r="D16" s="56">
+        <v>0</v>
+      </c>
+      <c r="E16" s="24" t="s">
+        <v>154</v>
+      </c>
+      <c r="F16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="G16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="H16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="I16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="J16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="K16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="L16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="M16" s="56" t="s">
+        <v>78</v>
+      </c>
+      <c r="N16" s="56" t="s">
+        <v>65</v>
+      </c>
+      <c r="O16" s="56" t="s">
+        <v>15</v>
+      </c>
+      <c r="P16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q16" s="64" t="s">
+        <v>149</v>
+      </c>
+      <c r="R16" s="56" t="s">
         <v>37</v>
       </c>
-      <c r="B16" s="24" t="s">
-        <v>97</v>
-      </c>
-      <c r="C16" s="24" t="s">
-        <v>51</v>
-      </c>
-      <c r="D16" s="56">
-        <v>0</v>
-      </c>
-      <c r="E16" s="24" t="s">
-        <v>156</v>
-      </c>
-      <c r="F16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="G16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="H16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="I16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="J16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="K16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="L16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="M16" s="56" t="s">
-        <v>80</v>
-      </c>
-      <c r="N16" s="56" t="s">
-        <v>67</v>
-      </c>
-      <c r="O16" s="56" t="s">
-        <v>15</v>
-      </c>
-      <c r="P16" s="24" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q16" s="64" t="s">
-        <v>151</v>
-      </c>
-      <c r="R16" s="56" t="s">
-        <v>38</v>
-      </c>
       <c r="S16" s="56" t="s">
         <v>16</v>
       </c>
       <c r="T16" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="U16" s="57"/>
-      <c r="V16" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="W16" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="X16" s="59" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y16" s="60" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z16" s="61">
-        <v>1</v>
-      </c>
-      <c r="AA16" s="24" t="s">
+      <c r="U16" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="V16" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W16" s="59" t="b">
+        <v>1</v>
+      </c>
+      <c r="X16" s="60" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y16" s="61">
+        <v>1</v>
+      </c>
+      <c r="Z16" s="24" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA16" s="62" t="s">
         <v>15</v>
       </c>
       <c r="AB16" s="62" t="s">
         <v>15</v>
       </c>
-      <c r="AC16" s="62" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="17" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="17" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A17" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="B17" s="24" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="C17" s="24" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
       <c r="D17" s="56">
         <v>2</v>
       </c>
       <c r="E17" s="24" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="F17" s="56" t="s">
         <v>15</v>
@@ -3689,7 +3672,7 @@
         <v>15</v>
       </c>
       <c r="M17" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N17" s="56" t="s">
         <v>14</v>
@@ -3712,21 +3695,23 @@
       <c r="T17" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="U17" s="57"/>
-      <c r="V17" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="W17" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="X17" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y17" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z17" s="56">
-        <v>1</v>
+      <c r="U17" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="V17" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W17" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X17" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y17" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z17" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="AA17" s="24" t="s">
         <v>15</v>
@@ -3734,25 +3719,22 @@
       <c r="AB17" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AC17" s="24" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="18" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="18" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A18" s="24" t="s">
+        <v>150</v>
+      </c>
+      <c r="B18" s="24" t="s">
         <v>152</v>
       </c>
-      <c r="B18" s="24" t="s">
-        <v>154</v>
-      </c>
       <c r="C18" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D18" s="56">
         <v>0</v>
       </c>
       <c r="E18" s="24" t="s">
-        <v>157</v>
+        <v>155</v>
       </c>
       <c r="F18" s="56" t="s">
         <v>15</v>
@@ -3776,7 +3758,7 @@
         <v>15</v>
       </c>
       <c r="M18" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N18" s="56" t="s">
         <v>14</v>
@@ -3799,21 +3781,23 @@
       <c r="T18" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="U18" s="57"/>
-      <c r="V18" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="W18" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="X18" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y18" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z18" s="56">
-        <v>1</v>
+      <c r="U18" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="V18" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W18" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X18" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y18" s="56">
+        <v>1</v>
+      </c>
+      <c r="Z18" s="24" t="s">
+        <v>15</v>
       </c>
       <c r="AA18" s="24" t="s">
         <v>15</v>
@@ -3821,25 +3805,22 @@
       <c r="AB18" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AC18" s="24" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="19" spans="1:29" s="63" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="19" spans="1:28" s="63" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A19" s="24" t="s">
+        <v>151</v>
+      </c>
+      <c r="B19" s="24" t="s">
         <v>153</v>
       </c>
-      <c r="B19" s="24" t="s">
-        <v>155</v>
-      </c>
       <c r="C19" s="24" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
       <c r="D19" s="56">
         <v>1</v>
       </c>
       <c r="E19" s="24" t="s">
-        <v>158</v>
+        <v>156</v>
       </c>
       <c r="F19" s="56" t="b">
         <v>1</v>
@@ -3863,7 +3844,7 @@
         <v>15</v>
       </c>
       <c r="M19" s="56" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N19" s="56" t="s">
         <v>14</v>
@@ -3886,129 +3867,127 @@
       <c r="T19" s="56" t="s">
         <v>16</v>
       </c>
-      <c r="U19" s="57"/>
-      <c r="V19" s="57" t="s">
-        <v>15</v>
-      </c>
-      <c r="W19" s="58" t="b">
-        <v>1</v>
-      </c>
-      <c r="X19" s="59" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y19" s="65" t="b">
-        <v>0</v>
-      </c>
-      <c r="Z19" s="56">
+      <c r="U19" s="57" t="s">
+        <v>15</v>
+      </c>
+      <c r="V19" s="58" t="b">
+        <v>1</v>
+      </c>
+      <c r="W19" s="59" t="b">
+        <v>0</v>
+      </c>
+      <c r="X19" s="65" t="b">
+        <v>0</v>
+      </c>
+      <c r="Y19" s="56">
         <v>3</v>
       </c>
+      <c r="Z19" s="24" t="s">
+        <v>15</v>
+      </c>
       <c r="AA19" s="24" t="s">
         <v>15</v>
       </c>
       <c r="AB19" s="24" t="s">
         <v>15</v>
       </c>
-      <c r="AC19" s="24" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="20" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="20" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="B20" s="19" t="s">
+        <v>96</v>
+      </c>
+      <c r="C20" s="19" t="s">
+        <v>51</v>
+      </c>
+      <c r="D20" s="26">
+        <v>0</v>
+      </c>
+      <c r="E20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="G20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="H20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="I20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="J20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="K20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="L20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="M20" s="26" t="s">
+        <v>80</v>
+      </c>
+      <c r="N20" s="26" t="s">
+        <v>65</v>
+      </c>
+      <c r="O20" s="26" t="s">
+        <v>15</v>
+      </c>
+      <c r="P20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="Q20" s="19" t="s">
+        <v>53</v>
+      </c>
+      <c r="R20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="S20" s="26" t="s">
+        <v>54</v>
+      </c>
+      <c r="T20" s="26" t="s">
+        <v>53</v>
+      </c>
+      <c r="U20" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V20" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W20" s="29" t="b">
+        <v>1</v>
+      </c>
+      <c r="X20" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y20" s="26">
+        <v>3</v>
+      </c>
+      <c r="Z20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AA20" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="AB20" s="19" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
+      <c r="A21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="B20" s="19" t="s">
-        <v>98</v>
-      </c>
-      <c r="C20" s="19" t="s">
+      <c r="B21" s="19" t="s">
+        <v>97</v>
+      </c>
+      <c r="C21" s="19" t="s">
         <v>52</v>
       </c>
-      <c r="D20" s="26">
-        <v>0</v>
-      </c>
-      <c r="E20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="F20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="G20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="H20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="I20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="J20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="K20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="L20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="M20" s="26" t="s">
-        <v>82</v>
-      </c>
-      <c r="N20" s="26" t="s">
-        <v>67</v>
-      </c>
-      <c r="O20" s="26" t="s">
-        <v>15</v>
-      </c>
-      <c r="P20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="Q20" s="19" t="s">
-        <v>54</v>
-      </c>
-      <c r="R20" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="S20" s="26" t="s">
-        <v>55</v>
-      </c>
-      <c r="T20" s="26" t="s">
-        <v>54</v>
-      </c>
-      <c r="U20" s="28"/>
-      <c r="V20" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="W20" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="X20" s="29" t="b">
-        <v>1</v>
-      </c>
-      <c r="Y20" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z20" s="26">
-        <v>3</v>
-      </c>
-      <c r="AA20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AB20" s="19" t="s">
-        <v>15</v>
-      </c>
-      <c r="AC20" s="19" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="21" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
-      <c r="A21" s="19" t="s">
-        <v>53</v>
-      </c>
-      <c r="B21" s="19" t="s">
-        <v>99</v>
-      </c>
-      <c r="C21" s="19" t="s">
-        <v>53</v>
-      </c>
       <c r="D21" s="26">
         <v>0</v>
       </c>
@@ -4037,7 +4016,7 @@
         <v>15</v>
       </c>
       <c r="M21" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N21" s="26" t="s">
         <v>13</v>
@@ -4049,32 +4028,34 @@
         <v>15</v>
       </c>
       <c r="Q21" s="19" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="R21" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="S21" s="26" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="T21" s="26" t="s">
-        <v>56</v>
-      </c>
-      <c r="U21" s="28"/>
-      <c r="V21" s="27" t="s">
-        <v>15</v>
-      </c>
-      <c r="W21" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="X21" s="29" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y21" s="66" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z21" s="26">
-        <v>1</v>
+        <v>55</v>
+      </c>
+      <c r="U21" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V21" s="28" t="b">
+        <v>1</v>
+      </c>
+      <c r="W21" s="29" t="b">
+        <v>0</v>
+      </c>
+      <c r="X21" s="66" t="b">
+        <v>1</v>
+      </c>
+      <c r="Y21" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z21" s="19" t="s">
+        <v>15</v>
       </c>
       <c r="AA21" s="19" t="s">
         <v>15</v>
@@ -4082,19 +4063,16 @@
       <c r="AB21" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC21" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="22" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="22" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A22" s="19" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B22" s="19" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
       <c r="C22" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D22" s="26">
         <v>0</v>
@@ -4124,7 +4102,7 @@
         <v>16</v>
       </c>
       <c r="M22" s="26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N22" s="26" t="s">
         <v>14</v>
@@ -4136,7 +4114,7 @@
         <v>0.5</v>
       </c>
       <c r="Q22" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="R22" s="26" t="s">
         <v>16</v>
@@ -4147,42 +4125,41 @@
       <c r="T22" s="26" t="s">
         <v>16</v>
       </c>
-      <c r="U22" s="26"/>
-      <c r="V22" s="19" t="s">
-        <v>16</v>
+      <c r="U22" s="19" t="s">
+        <v>16</v>
+      </c>
+      <c r="V22" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="W22" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X22" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y22" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z22" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA22" s="19" t="str">
-        <f t="shared" ref="AA22:AA37" si="0">A22</f>
+        <v>1</v>
+      </c>
+      <c r="Y22" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z22" s="19" t="str">
+        <f t="shared" ref="Z22:Z37" si="0">A22</f>
         <v>Player_NormalAttack_1_Ready</v>
       </c>
+      <c r="AA22" s="19" t="s">
+        <v>16</v>
+      </c>
       <c r="AB22" s="19" t="s">
-        <v>16</v>
-      </c>
-      <c r="AC22" s="19" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="23" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="23" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A23" s="19" t="s">
-        <v>141</v>
+        <v>139</v>
       </c>
       <c r="B23" s="19" t="s">
-        <v>140</v>
+        <v>138</v>
       </c>
       <c r="C23" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D23" s="26">
         <v>1</v>
@@ -4212,10 +4189,10 @@
         <v>15</v>
       </c>
       <c r="M23" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N23" s="26" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O23" s="26">
         <v>0.2</v>
@@ -4224,7 +4201,7 @@
         <v>0.2</v>
       </c>
       <c r="Q23" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="R23" s="26" t="s">
         <v>15</v>
@@ -4235,42 +4212,41 @@
       <c r="T23" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U23" s="26"/>
-      <c r="V23" s="19" t="s">
-        <v>15</v>
+      <c r="U23" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V23" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="W23" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X23" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y23" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z23" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA23" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y23" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z23" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_1_Wait</v>
       </c>
+      <c r="AA23" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB23" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC23" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="24" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="24" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A24" s="19" t="s">
-        <v>139</v>
+        <v>137</v>
       </c>
       <c r="B24" s="19" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="C24" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D24" s="26">
         <v>2</v>
@@ -4300,7 +4276,7 @@
         <v>15</v>
       </c>
       <c r="M24" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N24" s="26" t="s">
         <v>13</v>
@@ -4312,7 +4288,7 @@
         <v>0.2</v>
       </c>
       <c r="Q24" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="R24" s="26" t="s">
         <v>15</v>
@@ -4323,42 +4299,41 @@
       <c r="T24" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U24" s="26"/>
-      <c r="V24" s="19" t="s">
-        <v>15</v>
+      <c r="U24" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V24" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="W24" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X24" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y24" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z24" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA24" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y24" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z24" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_1_Slash</v>
       </c>
+      <c r="AA24" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB24" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC24" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="25" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A25" s="19" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
       <c r="B25" s="19" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="C25" s="19" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
       <c r="D25" s="26">
         <v>3</v>
@@ -4388,7 +4363,7 @@
         <v>15</v>
       </c>
       <c r="M25" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N25" s="26" t="s">
         <v>13</v>
@@ -4411,42 +4386,41 @@
       <c r="T25" s="26" t="s">
         <v>15</v>
       </c>
-      <c r="U25" s="26"/>
-      <c r="V25" s="19" t="s">
-        <v>15</v>
+      <c r="U25" s="19" t="s">
+        <v>15</v>
+      </c>
+      <c r="V25" s="26" t="b">
+        <v>1</v>
       </c>
       <c r="W25" s="26" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X25" s="26" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y25" s="26" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z25" s="26">
-        <v>1</v>
-      </c>
-      <c r="AA25" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y25" s="26">
+        <v>1</v>
+      </c>
+      <c r="Z25" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_1_Recover</v>
       </c>
+      <c r="AA25" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB25" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC25" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="26" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="26" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A26" s="20" t="s">
-        <v>159</v>
+        <v>157</v>
       </c>
       <c r="B26" s="20" t="s">
-        <v>134</v>
+        <v>132</v>
       </c>
       <c r="C26" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D26" s="32">
         <v>0</v>
@@ -4476,10 +4450,10 @@
         <v>15</v>
       </c>
       <c r="M26" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N26" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O26" s="32">
         <v>0.1</v>
@@ -4488,7 +4462,7 @@
         <v>0.1</v>
       </c>
       <c r="Q26" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="R26" s="32" t="s">
         <v>15</v>
@@ -4499,42 +4473,41 @@
       <c r="T26" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U26" s="32"/>
-      <c r="V26" s="20" t="s">
-        <v>15</v>
+      <c r="U26" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V26" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="W26" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X26" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y26" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z26" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA26" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y26" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z26" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_2_Wait</v>
       </c>
+      <c r="AA26" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB26" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC26" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="27" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A27" s="20" t="s">
-        <v>133</v>
+        <v>131</v>
       </c>
       <c r="B27" s="20" t="s">
-        <v>132</v>
+        <v>130</v>
       </c>
       <c r="C27" s="20" t="s">
-        <v>160</v>
+        <v>158</v>
       </c>
       <c r="D27" s="32">
         <v>1</v>
@@ -4564,7 +4537,7 @@
         <v>15</v>
       </c>
       <c r="M27" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N27" s="32" t="s">
         <v>13</v>
@@ -4576,7 +4549,7 @@
         <v>0.2</v>
       </c>
       <c r="Q27" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="R27" s="32" t="s">
         <v>15</v>
@@ -4587,42 +4560,41 @@
       <c r="T27" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="U27" s="32"/>
-      <c r="V27" s="20" t="s">
-        <v>15</v>
+      <c r="U27" s="20" t="s">
+        <v>15</v>
+      </c>
+      <c r="V27" s="32" t="b">
+        <v>1</v>
       </c>
       <c r="W27" s="32" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X27" s="32" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y27" s="32" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z27" s="32">
-        <v>1</v>
-      </c>
-      <c r="AA27" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y27" s="32">
+        <v>1</v>
+      </c>
+      <c r="Z27" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_2_Slash</v>
       </c>
+      <c r="AA27" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB27" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC27" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="28" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="28" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A28" s="20" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B28" s="20" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
       <c r="C28" s="20" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="D28" s="32">
         <v>2</v>
@@ -4652,7 +4624,7 @@
         <v>15</v>
       </c>
       <c r="M28" s="32" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N28" s="32" t="s">
         <v>13</v>
@@ -4675,42 +4647,41 @@
       <c r="T28" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U28" s="34"/>
-      <c r="V28" s="33" t="s">
-        <v>15</v>
+      <c r="U28" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V28" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="W28" s="34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X28" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y28" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z28" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA28" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y28" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z28" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_2_Recover</v>
       </c>
+      <c r="AA28" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB28" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC28" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="29" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="29" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A29" s="19" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
       <c r="B29" s="19" t="s">
-        <v>127</v>
+        <v>125</v>
       </c>
       <c r="C29" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D29" s="26">
         <v>0</v>
@@ -4740,10 +4711,10 @@
         <v>15</v>
       </c>
       <c r="M29" s="26" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N29" s="26" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O29" s="26">
         <v>0.1</v>
@@ -4752,7 +4723,7 @@
         <v>0.1</v>
       </c>
       <c r="Q29" s="19" t="s">
-        <v>126</v>
+        <v>124</v>
       </c>
       <c r="R29" s="67" t="s">
         <v>15</v>
@@ -4763,42 +4734,41 @@
       <c r="T29" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="U29" s="67"/>
-      <c r="V29" s="68" t="s">
-        <v>15</v>
+      <c r="U29" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="V29" s="67" t="b">
+        <v>1</v>
       </c>
       <c r="W29" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X29" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y29" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z29" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA29" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y29" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z29" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_3_Wait</v>
       </c>
+      <c r="AA29" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB29" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC29" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="30" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A30" s="19" t="s">
-        <v>161</v>
+        <v>159</v>
       </c>
       <c r="B30" s="19" t="s">
-        <v>125</v>
+        <v>123</v>
       </c>
       <c r="C30" s="19" t="s">
-        <v>162</v>
+        <v>160</v>
       </c>
       <c r="D30" s="26">
         <v>1</v>
@@ -4828,7 +4798,7 @@
         <v>15</v>
       </c>
       <c r="M30" s="26" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N30" s="26" t="s">
         <v>13</v>
@@ -4840,7 +4810,7 @@
         <v>0.2</v>
       </c>
       <c r="Q30" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="R30" s="67" t="s">
         <v>15</v>
@@ -4851,42 +4821,41 @@
       <c r="T30" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="U30" s="67"/>
-      <c r="V30" s="68" t="s">
-        <v>15</v>
+      <c r="U30" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="V30" s="67" t="b">
+        <v>1</v>
       </c>
       <c r="W30" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X30" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y30" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z30" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA30" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y30" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z30" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_3_Slash</v>
       </c>
+      <c r="AA30" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB30" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC30" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="31" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="31" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A31" s="19" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
       <c r="C31" s="19" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="D31" s="26">
         <v>2</v>
@@ -4916,7 +4885,7 @@
         <v>15</v>
       </c>
       <c r="M31" s="26" t="s">
-        <v>83</v>
+        <v>81</v>
       </c>
       <c r="N31" s="26" t="s">
         <v>13</v>
@@ -4939,42 +4908,41 @@
       <c r="T31" s="67" t="s">
         <v>15</v>
       </c>
-      <c r="U31" s="67"/>
-      <c r="V31" s="68" t="s">
-        <v>15</v>
+      <c r="U31" s="68" t="s">
+        <v>15</v>
+      </c>
+      <c r="V31" s="67" t="b">
+        <v>1</v>
       </c>
       <c r="W31" s="67" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X31" s="67" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y31" s="67" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z31" s="67">
-        <v>1</v>
-      </c>
-      <c r="AA31" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y31" s="67">
+        <v>1</v>
+      </c>
+      <c r="Z31" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_NormalAttack_3_Recover</v>
       </c>
+      <c r="AA31" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB31" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC31" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="32" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="32" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A32" s="20" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
       <c r="B32" s="20" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="C32" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D32" s="32">
         <v>0</v>
@@ -5004,10 +4972,10 @@
         <v>16</v>
       </c>
       <c r="M32" s="32" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="N32" s="32" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
       <c r="O32" s="32">
         <v>0.2</v>
@@ -5016,7 +4984,7 @@
         <v>0.5</v>
       </c>
       <c r="Q32" s="20" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="R32" s="69" t="s">
         <v>15</v>
@@ -5027,42 +4995,41 @@
       <c r="T32" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="U32" s="69"/>
-      <c r="V32" s="70" t="s">
-        <v>15</v>
+      <c r="U32" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="V32" s="69" t="b">
+        <v>0</v>
       </c>
       <c r="W32" s="69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X32" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="Y32" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z32" s="69">
-        <v>1</v>
-      </c>
-      <c r="AA32" s="20" t="str">
+      <c r="Y32" s="69">
+        <v>1</v>
+      </c>
+      <c r="Z32" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_Ready_Ready</v>
       </c>
+      <c r="AA32" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB32" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC32" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="33" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="33" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A33" s="20" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
       <c r="B33" s="20" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="C33" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D33" s="32">
         <v>1</v>
@@ -5092,10 +5059,10 @@
         <v>16</v>
       </c>
       <c r="M33" s="32" t="s">
-        <v>81</v>
+        <v>79</v>
       </c>
       <c r="N33" s="32" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
       <c r="O33" s="32">
         <v>0.5</v>
@@ -5104,7 +5071,7 @@
         <v>0.5</v>
       </c>
       <c r="Q33" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="R33" s="69" t="s">
         <v>15</v>
@@ -5115,42 +5082,41 @@
       <c r="T33" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="U33" s="69"/>
-      <c r="V33" s="70" t="s">
-        <v>15</v>
+      <c r="U33" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="V33" s="69" t="b">
+        <v>0</v>
       </c>
       <c r="W33" s="69" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="X33" s="69" t="b">
         <v>1</v>
       </c>
-      <c r="Y33" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z33" s="69">
-        <v>1</v>
-      </c>
-      <c r="AA33" s="20" t="str">
+      <c r="Y33" s="69">
+        <v>1</v>
+      </c>
+      <c r="Z33" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_Ready_Wait</v>
       </c>
+      <c r="AA33" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB33" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC33" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="34" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A34" s="20" t="s">
-        <v>114</v>
+        <v>112</v>
       </c>
       <c r="B34" s="20" t="s">
-        <v>113</v>
+        <v>111</v>
       </c>
       <c r="C34" s="20" t="s">
-        <v>112</v>
+        <v>110</v>
       </c>
       <c r="D34" s="32">
         <v>2</v>
@@ -5180,16 +5146,16 @@
         <v>16</v>
       </c>
       <c r="M34" s="32" t="s">
-        <v>82</v>
+        <v>80</v>
       </c>
       <c r="N34" s="32" t="s">
-        <v>68</v>
+        <v>66</v>
       </c>
       <c r="O34" s="32" t="s">
         <v>16</v>
       </c>
       <c r="P34" s="34" t="s">
-        <v>111</v>
+        <v>109</v>
       </c>
       <c r="Q34" s="20" t="s">
         <v>16</v>
@@ -5203,42 +5169,41 @@
       <c r="T34" s="69" t="s">
         <v>15</v>
       </c>
-      <c r="U34" s="69"/>
-      <c r="V34" s="70" t="s">
-        <v>15</v>
+      <c r="U34" s="70" t="s">
+        <v>15</v>
+      </c>
+      <c r="V34" s="69" t="b">
+        <v>0</v>
       </c>
       <c r="W34" s="69" t="b">
         <v>0</v>
       </c>
       <c r="X34" s="69" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y34" s="69" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z34" s="69">
-        <v>1</v>
-      </c>
-      <c r="AA34" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y34" s="69">
+        <v>1</v>
+      </c>
+      <c r="Z34" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_Ready_Hold</v>
       </c>
+      <c r="AA34" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB34" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC34" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="35" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="35" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A35" s="19" t="s">
-        <v>110</v>
+        <v>108</v>
       </c>
       <c r="B35" s="19" t="s">
-        <v>109</v>
+        <v>107</v>
       </c>
       <c r="C35" s="19" t="s">
-        <v>163</v>
+        <v>161</v>
       </c>
       <c r="D35" s="26">
         <v>0</v>
@@ -5268,7 +5233,7 @@
         <v>16</v>
       </c>
       <c r="M35" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N35" s="26" t="s">
         <v>13</v>
@@ -5291,42 +5256,41 @@
       <c r="T35" s="28" t="s">
         <v>16</v>
       </c>
-      <c r="U35" s="28"/>
-      <c r="V35" s="27" t="s">
-        <v>16</v>
+      <c r="U35" s="27" t="s">
+        <v>16</v>
+      </c>
+      <c r="V35" s="28" t="b">
+        <v>1</v>
       </c>
       <c r="W35" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X35" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y35" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z35" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA35" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y35" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z35" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_1_Slash</v>
       </c>
+      <c r="AA35" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB35" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC35" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="36" spans="1:29" s="37" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="36" spans="1:28" s="37" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A36" s="20" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B36" s="20" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
       <c r="C36" s="20" t="s">
-        <v>106</v>
+        <v>104</v>
       </c>
       <c r="D36" s="32">
         <v>0</v>
@@ -5356,7 +5320,7 @@
         <v>15</v>
       </c>
       <c r="M36" s="32" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N36" s="32" t="s">
         <v>13</v>
@@ -5379,42 +5343,41 @@
       <c r="T36" s="34" t="s">
         <v>15</v>
       </c>
-      <c r="U36" s="34"/>
-      <c r="V36" s="33" t="s">
-        <v>15</v>
+      <c r="U36" s="33" t="s">
+        <v>15</v>
+      </c>
+      <c r="V36" s="34" t="b">
+        <v>1</v>
       </c>
       <c r="W36" s="34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X36" s="34" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y36" s="34" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z36" s="34">
-        <v>1</v>
-      </c>
-      <c r="AA36" s="20" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y36" s="34">
+        <v>1</v>
+      </c>
+      <c r="Z36" s="20" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_2_Slash</v>
       </c>
+      <c r="AA36" s="20" t="s">
+        <v>15</v>
+      </c>
       <c r="AB36" s="20" t="s">
         <v>15</v>
       </c>
-      <c r="AC36" s="20" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="37" spans="1:29" s="31" customFormat="1" x14ac:dyDescent="0.4">
+    <row r="37" spans="1:28" s="31" customFormat="1" x14ac:dyDescent="0.4">
       <c r="A37" s="19" t="s">
-        <v>105</v>
+        <v>103</v>
       </c>
       <c r="B37" s="19" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="C37" s="19" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="D37" s="26">
         <v>0</v>
@@ -5444,7 +5407,7 @@
         <v>15</v>
       </c>
       <c r="M37" s="26" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="N37" s="26" t="s">
         <v>13</v>
@@ -5467,70 +5430,69 @@
       <c r="T37" s="28" t="s">
         <v>15</v>
       </c>
-      <c r="U37" s="28"/>
-      <c r="V37" s="27" t="s">
-        <v>15</v>
+      <c r="U37" s="27" t="s">
+        <v>15</v>
+      </c>
+      <c r="V37" s="28" t="b">
+        <v>1</v>
       </c>
       <c r="W37" s="28" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="X37" s="28" t="b">
-        <v>0</v>
-      </c>
-      <c r="Y37" s="28" t="b">
-        <v>1</v>
-      </c>
-      <c r="Z37" s="28">
-        <v>1</v>
-      </c>
-      <c r="AA37" s="19" t="str">
+        <v>1</v>
+      </c>
+      <c r="Y37" s="28">
+        <v>1</v>
+      </c>
+      <c r="Z37" s="19" t="str">
         <f t="shared" si="0"/>
         <v>Player_ChargeAttack_3_Slash</v>
       </c>
+      <c r="AA37" s="19" t="s">
+        <v>15</v>
+      </c>
       <c r="AB37" s="19" t="s">
         <v>15</v>
       </c>
-      <c r="AC37" s="19" t="s">
-        <v>15</v>
-      </c>
     </row>
-    <row r="38" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y38" s="75"/>
-      <c r="Z38" s="25"/>
+    <row r="38" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X38" s="75"/>
+      <c r="Y38" s="25"/>
+      <c r="AA38" s="71"/>
       <c r="AB38" s="71"/>
-      <c r="AC38" s="71"/>
     </row>
-    <row r="39" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y39" s="75"/>
-      <c r="Z39" s="25"/>
+    <row r="39" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X39" s="75"/>
+      <c r="Y39" s="25"/>
     </row>
-    <row r="40" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y40" s="75"/>
-      <c r="Z40" s="25"/>
+    <row r="40" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X40" s="75"/>
+      <c r="Y40" s="25"/>
     </row>
-    <row r="41" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y41" s="75"/>
-      <c r="Z41" s="25"/>
+    <row r="41" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X41" s="75"/>
+      <c r="Y41" s="25"/>
     </row>
-    <row r="42" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y42" s="75"/>
-      <c r="Z42" s="25"/>
+    <row r="42" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X42" s="75"/>
+      <c r="Y42" s="25"/>
     </row>
-    <row r="43" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y43" s="75"/>
-      <c r="Z43" s="25"/>
+    <row r="43" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X43" s="75"/>
+      <c r="Y43" s="25"/>
     </row>
-    <row r="44" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y44" s="75"/>
-      <c r="Z44" s="25"/>
+    <row r="44" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X44" s="75"/>
+      <c r="Y44" s="25"/>
     </row>
-    <row r="45" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y45" s="75"/>
-      <c r="Z45" s="25"/>
+    <row r="45" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X45" s="75"/>
+      <c r="Y45" s="25"/>
     </row>
-    <row r="46" spans="1:29" x14ac:dyDescent="0.4">
-      <c r="Y46" s="75"/>
-      <c r="Z46" s="25"/>
+    <row r="46" spans="1:28" x14ac:dyDescent="0.4">
+      <c r="X46" s="75"/>
+      <c r="Y46" s="25"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
